--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_16_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_16_41.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77127.085698981</v>
+        <v>5151068.340509114</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77127.085698981</v>
+        <v>5151068.340509114</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112834887.642242</v>
+        <v>41963949.34405977</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12464.04795538651</v>
+        <v>1085917.919648062</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23366.02158343045</v>
+        <v>1900031.729787284</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34264.50587689058</v>
+        <v>2714145.539926506</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45392.79631644858</v>
+        <v>3527443.378630811</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56521.08675600658</v>
+        <v>4340741.217335117</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67649.31565998</v>
+        <v>5154039.056039422</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78777.58803919618</v>
+        <v>5967336.894743723</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89905.8784787542</v>
+        <v>6780634.733448024</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101034.1689183122</v>
+        <v>7593932.572152326</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112162.4593578703</v>
+        <v>8407230.410856629</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>123290.7497974283</v>
+        <v>9220528.249560928</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>134419.0368146177</v>
+        <v>10033826.08826523</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145547.3272541758</v>
+        <v>10847123.92696955</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>156675.6176937338</v>
+        <v>11660421.76567386</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>167803.9081332919</v>
+        <v>12473719.60437817</v>
       </c>
     </row>
   </sheetData>
